--- a/spliced/struggle/2023-03-25_18-15-04/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-03-25_18-15-04/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>0.08811730891466139</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1.416291117668152</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-4.02208948135376</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-1.155757069587708</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
